--- a/项目文档/后台接口/用户相关接口.xlsx
+++ b/项目文档/后台接口/用户相关接口.xlsx
@@ -40,7 +40,7 @@
     <t>查询</t>
   </si>
   <si>
-    <t>/api/admin/user/findById</t>
+    <t>/admin/user/findById</t>
   </si>
   <si>
     <t>GET</t>
@@ -52,10 +52,16 @@
     <t>分页查询</t>
   </si>
   <si>
-    <t>/api/admin/user/ffindAll</t>
+    <t>/admin/user/ffindAll</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
       <t>start</t>
     </r>
     <r>
@@ -81,7 +87,7 @@
     <t>删除用户</t>
   </si>
   <si>
-    <t>/api/admin/user/deleteById</t>
+    <t>/admin/user/deleteById</t>
   </si>
 </sst>
 </file>
@@ -89,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="23">
@@ -118,43 +124,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -174,17 +143,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,14 +180,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,8 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +241,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -249,22 +271,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -293,55 +299,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,127 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +545,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -558,18 +588,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,35 +617,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,148 +647,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2036,7 +2042,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>

--- a/项目文档/后台接口/用户相关接口.xlsx
+++ b/项目文档/后台接口/用户相关接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="后台接口文档" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>模块</t>
   </si>
@@ -84,6 +84,20 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>默认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>start1 pageSize 10</t>
+    </r>
+  </si>
+  <si>
     <t>删除用户</t>
   </si>
   <si>
@@ -95,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="23">
@@ -129,6 +143,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica"/>
@@ -144,16 +166,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,10 +186,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,14 +210,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica"/>
@@ -210,16 +225,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,15 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +271,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -299,91 +313,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,91 +487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,11 +559,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,39 +624,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -642,6 +647,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -650,149 +664,149 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -827,6 +841,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2042,7 +2059,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>
@@ -2113,15 +2130,17 @@
       <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" ht="22.75" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -2137,7 +2156,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:6">
@@ -2152,8 +2171,8 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:6">
@@ -2165,15 +2184,15 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="9"/>
@@ -2181,15 +2200,15 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="9"/>
@@ -2197,15 +2216,15 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="9"/>
@@ -2213,15 +2232,15 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
@@ -2229,15 +2248,15 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
@@ -2245,15 +2264,15 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
@@ -2261,15 +2280,15 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
@@ -2277,15 +2296,15 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
@@ -2293,15 +2312,15 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A26" s="13"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
@@ -2309,15 +2328,15 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A29" s="14"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -2325,12 +2344,12 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A30" s="13"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="15"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
